--- a/RoadMap/Map3.xlsx
+++ b/RoadMap/Map3.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\修正対応済\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HukuokaGameA\RoadMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985F1D30-E497-4D1A-8464-068004B0795D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="how to" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="116">
   <si>
     <t>Ps</t>
   </si>
@@ -312,9 +311,6 @@
   </si>
   <si>
     <t>St</t>
-  </si>
-  <si>
-    <t>J</t>
   </si>
   <si>
     <t>C</t>
@@ -857,10 +853,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -900,11 +892,63 @@
     <t>E_4</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Ns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nr</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1817,11 +1861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1875,95 +1919,95 @@
     <row r="1" spans="1:192" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="39"/>
       <c r="B1" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="M1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="R1" s="47"/>
       <c r="S1" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="U1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="V1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="W1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="X1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="Y1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Z1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="AA1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AB1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AF1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="AG1" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="AH1" s="9"/>
     </row>
@@ -1972,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -1981,7 +2025,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1990,13 +2034,13 @@
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="P2" s="20" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="R2" s="27">
         <v>1</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -2176,9 +2220,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2192,14 +2234,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P3" s="21"/>
       <c r="R3" s="27">
         <v>2</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -2379,9 +2419,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2395,14 +2433,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P4" s="21"/>
       <c r="R4" s="27">
         <v>3</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2582,9 +2618,7 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2598,14 +2632,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P5" s="21"/>
       <c r="R5" s="27">
         <v>4</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -2785,9 +2817,7 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2801,14 +2831,12 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P6" s="21"/>
       <c r="R6" s="27">
         <v>5</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -2988,9 +3016,7 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
@@ -3004,14 +3030,12 @@
       <c r="M7" s="7"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P7" s="21"/>
       <c r="R7" s="27">
         <v>6</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -3191,9 +3215,7 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3207,14 +3229,12 @@
       <c r="M8" s="7"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P8" s="21"/>
       <c r="R8" s="27">
         <v>7</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -3395,7 +3415,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -3437,13 +3457,13 @@
         <v>21</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="R9" s="27">
         <v>8</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -3642,7 +3662,7 @@
         <v>9</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -3841,7 +3861,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -4040,7 +4060,7 @@
         <v>11</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -4239,7 +4259,7 @@
         <v>12</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -4420,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="5"/>
@@ -4430,13 +4450,13 @@
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>3</v>
@@ -4446,13 +4466,13 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R14" s="27">
         <v>13</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -4651,7 +4671,7 @@
         <v>14</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -4850,7 +4870,7 @@
         <v>15</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -5049,7 +5069,7 @@
         <v>16</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -5248,7 +5268,7 @@
         <v>17</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -5431,13 +5451,11 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5445,13 +5463,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="7" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="21"/>
@@ -5459,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -5658,7 +5674,7 @@
         <v>19</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -5857,7 +5873,7 @@
         <v>20</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -6056,7 +6072,7 @@
         <v>21</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -6237,7 +6253,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="5"/>
@@ -6253,13 +6269,13 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R23" s="27">
         <v>22</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -6447,7 +6463,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -6460,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -6659,7 +6675,7 @@
         <v>24</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -6858,7 +6874,7 @@
         <v>25</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -7057,7 +7073,7 @@
         <v>26</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -7256,7 +7272,7 @@
         <v>27</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -7437,7 +7453,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="5"/>
@@ -7447,11 +7463,11 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
@@ -7461,13 +7477,13 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R29" s="27">
         <v>28</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -7666,7 +7682,7 @@
         <v>29</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -7865,7 +7881,7 @@
         <v>30</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -8064,7 +8080,7 @@
         <v>31</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -8263,7 +8279,7 @@
         <v>32</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -8462,7 +8478,7 @@
         <v>33</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -8644,7 +8660,7 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
@@ -8666,14 +8682,14 @@
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P35" s="21"/>
       <c r="R35" s="27">
         <v>34</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -8872,7 +8888,7 @@
         <v>35</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="9"/>
@@ -9058,7 +9074,7 @@
         <v>36</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG37" s="2"/>
       <c r="AH37" s="9"/>
@@ -9239,7 +9255,7 @@
         <v>37</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="9"/>
@@ -9420,7 +9436,7 @@
         <v>38</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG39" s="2"/>
       <c r="AH39" s="9"/>
@@ -9447,7 +9463,7 @@
         <v>39</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" s="9"/>
@@ -9457,7 +9473,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7" t="s">
@@ -9483,13 +9499,13 @@
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R41" s="27">
         <v>40</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="9"/>
@@ -9512,7 +9528,7 @@
         <v>41</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="9"/>
@@ -9535,7 +9551,7 @@
         <v>42</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="9"/>
@@ -9552,7 +9568,7 @@
         <v>43</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="9"/>
@@ -9569,7 +9585,7 @@
         <v>44</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA45" s="3"/>
       <c r="AG45" s="2"/>
@@ -9587,7 +9603,7 @@
         <v>45</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AG46" s="2"/>
@@ -9607,11 +9623,11 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="46"/>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K47" t="s">
         <v>3</v>
@@ -9627,7 +9643,7 @@
         <v>46</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA47" s="3"/>
       <c r="AG47" s="2"/>
@@ -9645,7 +9661,7 @@
         <v>47</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AG48" s="2"/>
@@ -9663,7 +9679,7 @@
         <v>48</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA49" s="3"/>
       <c r="AG49" s="2"/>
@@ -9681,7 +9697,7 @@
         <v>49</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA50" s="3"/>
       <c r="AG50" s="2"/>
@@ -9699,7 +9715,7 @@
         <v>50</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="9"/>
@@ -9716,7 +9732,7 @@
         <v>51</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="9"/>
@@ -9751,7 +9767,7 @@
         <v>52</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG53" s="2"/>
       <c r="AH53" s="9"/>
@@ -9768,7 +9784,7 @@
         <v>53</v>
       </c>
       <c r="S54" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG54" s="2"/>
       <c r="AH54" s="9"/>
@@ -9785,7 +9801,7 @@
         <v>54</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG55" s="2"/>
       <c r="AH55" s="9"/>
@@ -9796,7 +9812,7 @@
       </c>
       <c r="B56" s="21"/>
       <c r="I56" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="21"/>
@@ -9804,7 +9820,7 @@
         <v>55</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" s="9"/>
@@ -9820,7 +9836,7 @@
         <v>56</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG57" s="2"/>
       <c r="AH57" s="9"/>
@@ -9836,7 +9852,7 @@
         <v>57</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="9"/>
@@ -9846,7 +9862,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -9865,13 +9881,13 @@
       <c r="N59" s="8"/>
       <c r="O59" s="5"/>
       <c r="P59" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R59" s="27">
         <v>58</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" s="9"/>
@@ -9887,7 +9903,7 @@
         <v>59</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="9"/>
@@ -9903,7 +9919,7 @@
         <v>60</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" s="9"/>
@@ -9919,7 +9935,7 @@
         <v>61</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="9"/>
@@ -9930,16 +9946,16 @@
       </c>
       <c r="B63" s="21"/>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="J63" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="21"/>
@@ -9947,7 +9963,7 @@
         <v>62</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="9"/>
@@ -9963,7 +9979,7 @@
         <v>63</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="9"/>
@@ -9979,7 +9995,7 @@
         <v>64</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="9"/>
@@ -9995,7 +10011,7 @@
         <v>65</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="9"/>
@@ -10006,7 +10022,7 @@
       </c>
       <c r="B67" s="21"/>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -10024,14 +10040,14 @@
         <v>2</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P67" s="21"/>
       <c r="R67" s="27">
         <v>66</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" s="9"/>
@@ -10047,7 +10063,7 @@
         <v>67</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="9"/>
@@ -10063,7 +10079,7 @@
         <v>68</v>
       </c>
       <c r="S69" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="9"/>
@@ -10079,7 +10095,7 @@
         <v>69</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="9"/>
@@ -10095,7 +10111,7 @@
         <v>70</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="9"/>
@@ -10105,7 +10121,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -10118,13 +10134,13 @@
       <c r="N72" s="8"/>
       <c r="O72" s="5"/>
       <c r="P72" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R72" s="27">
         <v>71</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG72" s="2"/>
       <c r="AH72" s="9"/>
@@ -10140,7 +10156,7 @@
         <v>72</v>
       </c>
       <c r="S73" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" s="9"/>
@@ -10150,7 +10166,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -10165,13 +10181,13 @@
       <c r="N74" s="8"/>
       <c r="O74" s="5"/>
       <c r="P74" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R74" s="27">
         <v>73</v>
       </c>
       <c r="S74" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG74" s="2"/>
       <c r="AH74" s="9"/>
@@ -10187,7 +10203,7 @@
         <v>74</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG75" s="2"/>
       <c r="AH75" s="9"/>
@@ -10197,7 +10213,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -10214,13 +10230,13 @@
       <c r="N76" s="8"/>
       <c r="O76" s="5"/>
       <c r="P76" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R76" s="27">
         <v>75</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG76" s="2"/>
       <c r="AH76" s="9"/>
@@ -10236,7 +10252,7 @@
         <v>76</v>
       </c>
       <c r="S77" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG77" s="2"/>
       <c r="AH77" s="9"/>
@@ -10246,7 +10262,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -10263,13 +10279,13 @@
       <c r="N78" s="8"/>
       <c r="O78" s="5"/>
       <c r="P78" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R78" s="27">
         <v>77</v>
       </c>
       <c r="S78" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG78" s="2"/>
       <c r="AH78" s="9"/>
@@ -10285,7 +10301,7 @@
         <v>78</v>
       </c>
       <c r="S79" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG79" s="2"/>
       <c r="AH79" s="9"/>
@@ -10295,7 +10311,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -10321,13 +10337,13 @@
       <c r="N80" s="8"/>
       <c r="O80" s="5"/>
       <c r="P80" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R80" s="27">
         <v>79</v>
       </c>
       <c r="S80" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG80" s="2"/>
       <c r="AH80" s="9"/>
@@ -10343,7 +10359,7 @@
         <v>80</v>
       </c>
       <c r="S81" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG81" s="2"/>
       <c r="AH81" s="9"/>
@@ -10359,7 +10375,7 @@
         <v>81</v>
       </c>
       <c r="S82" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG82" s="2"/>
       <c r="AH82" s="9"/>
@@ -10375,7 +10391,7 @@
         <v>82</v>
       </c>
       <c r="S83" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG83" s="2"/>
       <c r="AH83" s="9"/>
@@ -10391,7 +10407,7 @@
         <v>83</v>
       </c>
       <c r="S84" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" s="9"/>
@@ -10407,7 +10423,7 @@
         <v>84</v>
       </c>
       <c r="S85" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG85" s="2"/>
       <c r="AH85" s="9"/>
@@ -10423,7 +10439,7 @@
         <v>85</v>
       </c>
       <c r="S86" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" s="9"/>
@@ -10434,10 +10450,10 @@
       </c>
       <c r="B87" s="21"/>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O87" s="3"/>
       <c r="P87" s="21"/>
@@ -10445,7 +10461,7 @@
         <v>86</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG87" s="2"/>
       <c r="AH87" s="9"/>
@@ -10479,7 +10495,7 @@
         <v>87</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" s="9"/>
@@ -10495,7 +10511,7 @@
         <v>88</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG89" s="2"/>
       <c r="AH89" s="9"/>
@@ -10511,7 +10527,7 @@
         <v>89</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG90" s="2"/>
       <c r="AH90" s="9"/>
@@ -10527,7 +10543,7 @@
         <v>90</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG91" s="2"/>
       <c r="AH91" s="9"/>
@@ -10543,7 +10559,7 @@
         <v>91</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG92" s="2"/>
       <c r="AH92" s="9"/>
@@ -10559,7 +10575,7 @@
         <v>92</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG93" s="2"/>
       <c r="AH93" s="9"/>
@@ -10575,7 +10591,7 @@
         <v>93</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG94" s="2"/>
       <c r="AH94" s="9"/>
@@ -10586,10 +10602,10 @@
       </c>
       <c r="B95" s="21"/>
       <c r="E95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O95" s="3"/>
       <c r="P95" s="21"/>
@@ -10597,7 +10613,7 @@
         <v>94</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" s="9"/>
@@ -10631,7 +10647,7 @@
         <v>95</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG96" s="2"/>
       <c r="AH96" s="9"/>
@@ -10647,7 +10663,7 @@
         <v>96</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG97" s="2"/>
       <c r="AH97" s="9"/>
@@ -10663,7 +10679,7 @@
         <v>97</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG98" s="2"/>
       <c r="AH98" s="9"/>
@@ -10679,7 +10695,7 @@
         <v>98</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG99" s="2"/>
       <c r="AH99" s="9"/>
@@ -10695,7 +10711,7 @@
         <v>99</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG100" s="2"/>
       <c r="AH100" s="9"/>
@@ -10711,7 +10727,7 @@
         <v>100</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG101" s="2"/>
       <c r="AH101" s="9"/>
@@ -10727,7 +10743,7 @@
         <v>101</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG102" s="2"/>
       <c r="AH102" s="9"/>
@@ -10743,7 +10759,7 @@
         <v>102</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG103" s="2"/>
       <c r="AH103" s="9"/>
@@ -10754,10 +10770,10 @@
       </c>
       <c r="B104" s="21"/>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O104" s="3"/>
       <c r="P104" s="21"/>
@@ -10765,7 +10781,7 @@
         <v>103</v>
       </c>
       <c r="S104" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG104" s="2"/>
       <c r="AH104" s="9"/>
@@ -10792,7 +10808,7 @@
         <v>104</v>
       </c>
       <c r="S105" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG105" s="2"/>
       <c r="AH105" s="9"/>
@@ -10808,7 +10824,7 @@
         <v>105</v>
       </c>
       <c r="S106" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG106" s="2"/>
       <c r="AH106" s="9"/>
@@ -10824,7 +10840,7 @@
         <v>106</v>
       </c>
       <c r="S107" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG107" s="2"/>
       <c r="AH107" s="9"/>
@@ -10840,7 +10856,7 @@
         <v>107</v>
       </c>
       <c r="S108" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG108" s="2"/>
       <c r="AH108" s="9"/>
@@ -10856,7 +10872,7 @@
         <v>108</v>
       </c>
       <c r="S109" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG109" s="2"/>
       <c r="AH109" s="9"/>
@@ -10872,7 +10888,7 @@
         <v>109</v>
       </c>
       <c r="S110" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG110" s="2"/>
       <c r="AH110" s="9"/>
@@ -10888,7 +10904,7 @@
         <v>110</v>
       </c>
       <c r="S111" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG111" s="2"/>
       <c r="AH111" s="9"/>
@@ -10899,10 +10915,10 @@
       </c>
       <c r="B112" s="21"/>
       <c r="E112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O112" s="3"/>
       <c r="P112" s="21"/>
@@ -10910,7 +10926,7 @@
         <v>111</v>
       </c>
       <c r="S112" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG112" s="2"/>
       <c r="AH112" s="9"/>
@@ -10932,7 +10948,7 @@
         <v>112</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG113" s="2"/>
       <c r="AH113" s="9"/>
@@ -10948,7 +10964,7 @@
         <v>113</v>
       </c>
       <c r="S114" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG114" s="2"/>
       <c r="AH114" s="9"/>
@@ -10964,7 +10980,7 @@
         <v>114</v>
       </c>
       <c r="S115" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG115" s="2"/>
       <c r="AH115" s="9"/>
@@ -10980,7 +10996,7 @@
         <v>115</v>
       </c>
       <c r="S116" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG116" s="2"/>
       <c r="AH116" s="9"/>
@@ -10996,7 +11012,7 @@
         <v>116</v>
       </c>
       <c r="S117" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG117" s="2"/>
       <c r="AH117" s="9"/>
@@ -11006,7 +11022,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -11021,13 +11037,13 @@
       <c r="N118" s="8"/>
       <c r="O118" s="5"/>
       <c r="P118" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R118" s="27">
         <v>117</v>
       </c>
       <c r="S118" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG118" s="2"/>
       <c r="AH118" s="9"/>
@@ -11043,7 +11059,7 @@
         <v>118</v>
       </c>
       <c r="S119" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG119" s="2"/>
       <c r="AH119" s="9"/>
@@ -11059,7 +11075,7 @@
         <v>119</v>
       </c>
       <c r="S120" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG120" s="2"/>
       <c r="AH120" s="9"/>
@@ -11075,7 +11091,7 @@
         <v>120</v>
       </c>
       <c r="S121" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG121" s="2"/>
       <c r="AH121" s="9"/>
@@ -11100,7 +11116,7 @@
         <v>121</v>
       </c>
       <c r="S122" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG122" s="2"/>
       <c r="AH122" s="9"/>
@@ -11117,7 +11133,7 @@
         <v>122</v>
       </c>
       <c r="S123" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG123" s="2"/>
       <c r="AH123" s="9"/>
@@ -11133,7 +11149,7 @@
         <v>123</v>
       </c>
       <c r="S124" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG124" s="2"/>
       <c r="AH124" s="9"/>
@@ -11149,7 +11165,7 @@
         <v>124</v>
       </c>
       <c r="S125" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG125" s="2"/>
       <c r="AH125" s="9"/>
@@ -11165,7 +11181,7 @@
         <v>125</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG126" s="2"/>
       <c r="AH126" s="9"/>
@@ -11192,7 +11208,7 @@
         <v>126</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG127" s="2"/>
       <c r="AH127" s="9"/>
@@ -11208,7 +11224,7 @@
         <v>127</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG128" s="2"/>
       <c r="AH128" s="9"/>
@@ -11219,10 +11235,10 @@
       </c>
       <c r="B129" s="21"/>
       <c r="E129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O129" s="3"/>
       <c r="P129" s="21"/>
@@ -11230,7 +11246,7 @@
         <v>128</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG129" s="2"/>
       <c r="AH129" s="9"/>
@@ -11252,7 +11268,7 @@
         <v>129</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG130" s="2"/>
       <c r="AH130" s="9"/>
@@ -11268,7 +11284,7 @@
         <v>130</v>
       </c>
       <c r="S131" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG131" s="2"/>
       <c r="AH131" s="9"/>
@@ -11284,7 +11300,7 @@
         <v>131</v>
       </c>
       <c r="S132" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG132" s="2"/>
       <c r="AH132" s="9"/>
@@ -11300,7 +11316,7 @@
         <v>132</v>
       </c>
       <c r="S133" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG133" s="2"/>
       <c r="AH133" s="9"/>
@@ -11316,7 +11332,7 @@
         <v>133</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG134" s="2"/>
       <c r="AH134" s="9"/>
@@ -11350,7 +11366,7 @@
         <v>134</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG135" s="2"/>
       <c r="AH135" s="9"/>
@@ -11361,10 +11377,10 @@
       </c>
       <c r="B136" s="21"/>
       <c r="F136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O136" s="3"/>
       <c r="P136" s="21"/>
@@ -11372,7 +11388,7 @@
         <v>135</v>
       </c>
       <c r="S136" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG136" s="2"/>
       <c r="AH136" s="9"/>
@@ -11390,7 +11406,7 @@
         <v>136</v>
       </c>
       <c r="S137" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG137" s="2"/>
       <c r="AH137" s="9"/>
@@ -11416,7 +11432,7 @@
         <v>137</v>
       </c>
       <c r="S138" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG138" s="2"/>
       <c r="AH138" s="9"/>
@@ -11428,7 +11444,7 @@
       <c r="B139" s="21"/>
       <c r="F139" s="46"/>
       <c r="I139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L139" s="46"/>
       <c r="O139" s="3"/>
@@ -11437,7 +11453,7 @@
         <v>138</v>
       </c>
       <c r="S139" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG139" s="2"/>
       <c r="AH139" s="9"/>
@@ -11449,7 +11465,7 @@
       <c r="B140" s="21"/>
       <c r="F140" s="46"/>
       <c r="I140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L140" s="46"/>
       <c r="O140" s="3"/>
@@ -11458,7 +11474,7 @@
         <v>139</v>
       </c>
       <c r="S140" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG140" s="2"/>
       <c r="AH140" s="9"/>
@@ -11470,7 +11486,7 @@
       <c r="B141" s="21"/>
       <c r="F141" s="46"/>
       <c r="I141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L141" s="46"/>
       <c r="O141" s="3"/>
@@ -11479,7 +11495,7 @@
         <v>140</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG141" s="2"/>
       <c r="AH141" s="9"/>
@@ -11497,7 +11513,7 @@
         <v>141</v>
       </c>
       <c r="S142" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG142" s="2"/>
       <c r="AH142" s="9"/>
@@ -11515,7 +11531,7 @@
         <v>142</v>
       </c>
       <c r="S143" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG143" s="2"/>
       <c r="AH143" s="9"/>
@@ -11533,7 +11549,7 @@
         <v>143</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG144" s="2"/>
       <c r="AH144" s="9"/>
@@ -11551,7 +11567,7 @@
         <v>144</v>
       </c>
       <c r="S145" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG145" s="2"/>
       <c r="AH145" s="9"/>
@@ -11569,7 +11585,7 @@
         <v>145</v>
       </c>
       <c r="S146" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG146" s="2"/>
       <c r="AH146" s="9"/>
@@ -11580,46 +11596,31 @@
       </c>
       <c r="B147" s="21"/>
       <c r="C147" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E147" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="F147" s="46"/>
       <c r="G147" t="s">
-        <v>4</v>
-      </c>
-      <c r="H147" t="s">
-        <v>4</v>
-      </c>
-      <c r="I147" t="s">
-        <v>4</v>
-      </c>
-      <c r="J147" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="K147" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="L147" s="46"/>
       <c r="M147" t="s">
-        <v>4</v>
-      </c>
-      <c r="N147" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="O147" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="P147" s="21"/>
       <c r="R147" s="27">
         <v>146</v>
       </c>
       <c r="S147" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG147" s="2"/>
       <c r="AH147" s="9"/>
@@ -11637,7 +11638,7 @@
         <v>147</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG148" s="2"/>
       <c r="AH148" s="9"/>
@@ -11648,10 +11649,10 @@
       </c>
       <c r="B149" s="21"/>
       <c r="F149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="21"/>
@@ -11659,7 +11660,7 @@
         <v>148</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG149" s="2"/>
       <c r="AH149" s="9"/>
@@ -11669,7 +11670,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -11685,13 +11686,13 @@
       <c r="N150" s="8"/>
       <c r="O150" s="5"/>
       <c r="P150" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R150" s="27">
         <v>149</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG150" s="2"/>
       <c r="AH150" s="9"/>
@@ -11702,17 +11703,17 @@
       </c>
       <c r="B151" s="21"/>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P151" s="21"/>
       <c r="R151" s="27">
         <v>150</v>
       </c>
       <c r="S151" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG151" s="2"/>
       <c r="AH151" s="9"/>
@@ -11729,7 +11730,7 @@
         <v>151</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG152" s="2"/>
       <c r="AH152" s="9"/>
@@ -11746,7 +11747,7 @@
         <v>152</v>
       </c>
       <c r="S153" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG153" s="2"/>
       <c r="AH153" s="9"/>
@@ -11763,7 +11764,7 @@
         <v>153</v>
       </c>
       <c r="S154" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG154" s="2"/>
       <c r="AH154" s="9"/>
@@ -11780,7 +11781,7 @@
         <v>154</v>
       </c>
       <c r="S155" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG155" s="2"/>
       <c r="AH155" s="9"/>
@@ -11797,7 +11798,7 @@
         <v>155</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG156" s="2"/>
       <c r="AH156" s="9"/>
@@ -11814,7 +11815,7 @@
         <v>156</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG157" s="2"/>
       <c r="AH157" s="9"/>
@@ -11849,7 +11850,7 @@
         <v>157</v>
       </c>
       <c r="S158" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG158" s="2"/>
       <c r="AH158" s="9"/>
@@ -11867,7 +11868,7 @@
         <v>158</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG159" s="2"/>
       <c r="AH159" s="9"/>
@@ -11884,7 +11885,7 @@
         <v>159</v>
       </c>
       <c r="S160" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG160" s="2"/>
       <c r="AH160" s="9"/>
@@ -11901,7 +11902,7 @@
         <v>160</v>
       </c>
       <c r="S161" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG161" s="2"/>
       <c r="AH161" s="9"/>
@@ -11932,7 +11933,7 @@
         <v>161</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG162" s="2"/>
       <c r="AH162" s="9"/>
@@ -11949,7 +11950,7 @@
         <v>162</v>
       </c>
       <c r="S163" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG163" s="2"/>
       <c r="AH163" s="9"/>
@@ -11966,7 +11967,7 @@
         <v>163</v>
       </c>
       <c r="S164" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG164" s="2"/>
       <c r="AH164" s="9"/>
@@ -11983,7 +11984,7 @@
         <v>164</v>
       </c>
       <c r="S165" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG165" s="2"/>
       <c r="AH165" s="9"/>
@@ -12000,7 +12001,7 @@
         <v>165</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG166" s="2"/>
       <c r="AH166" s="9"/>
@@ -12032,7 +12033,7 @@
         <v>166</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG167" s="2"/>
       <c r="AH167" s="9"/>
@@ -12049,7 +12050,7 @@
         <v>167</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG168" s="2"/>
       <c r="AH168" s="9"/>
@@ -12066,7 +12067,7 @@
         <v>168</v>
       </c>
       <c r="S169" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG169" s="2"/>
       <c r="AH169" s="9"/>
@@ -12092,7 +12093,7 @@
         <v>169</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG170" s="2"/>
       <c r="AH170" s="9"/>
@@ -12109,7 +12110,7 @@
         <v>170</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG171" s="2"/>
       <c r="AH171" s="9"/>
@@ -12126,7 +12127,7 @@
         <v>171</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG172" s="2"/>
       <c r="AH172" s="9"/>
@@ -12149,7 +12150,7 @@
         <v>172</v>
       </c>
       <c r="S173" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG173" s="2"/>
       <c r="AH173" s="9"/>
@@ -12166,7 +12167,7 @@
         <v>173</v>
       </c>
       <c r="S174" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG174" s="2"/>
       <c r="AH174" s="9"/>
@@ -12192,7 +12193,7 @@
         <v>174</v>
       </c>
       <c r="S175" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG175" s="2"/>
       <c r="AH175" s="9"/>
@@ -12209,7 +12210,7 @@
         <v>175</v>
       </c>
       <c r="S176" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG176" s="2"/>
       <c r="AH176" s="9"/>
@@ -12226,7 +12227,7 @@
         <v>176</v>
       </c>
       <c r="S177" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG177" s="2"/>
       <c r="AH177" s="9"/>
@@ -12243,7 +12244,7 @@
         <v>177</v>
       </c>
       <c r="S178" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG178" s="2"/>
       <c r="AH178" s="9"/>
@@ -12260,7 +12261,7 @@
         <v>178</v>
       </c>
       <c r="S179" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG179" s="2"/>
       <c r="AH179" s="9"/>
@@ -12277,7 +12278,7 @@
         <v>179</v>
       </c>
       <c r="S180" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG180" s="2"/>
       <c r="AH180" s="9"/>
@@ -12296,13 +12297,10 @@
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
-      </c>
-      <c r="I181" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="J181" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="L181" t="s">
         <v>3</v>
@@ -12317,7 +12315,7 @@
         <v>180</v>
       </c>
       <c r="S181" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG181" s="2"/>
       <c r="AH181" s="9"/>
@@ -12334,7 +12332,7 @@
         <v>181</v>
       </c>
       <c r="S182" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG182" s="2"/>
       <c r="AH182" s="9"/>
@@ -12351,7 +12349,7 @@
         <v>182</v>
       </c>
       <c r="S183" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG183" s="2"/>
       <c r="AH183" s="9"/>
@@ -12363,10 +12361,10 @@
       <c r="B184" s="21"/>
       <c r="C184" s="46"/>
       <c r="D184" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N184" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O184" s="45"/>
       <c r="P184" s="21"/>
@@ -12374,7 +12372,7 @@
         <v>183</v>
       </c>
       <c r="S184" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG184" s="2"/>
       <c r="AH184" s="9"/>
@@ -12387,10 +12385,10 @@
       <c r="C185" s="46"/>
       <c r="D185" s="46"/>
       <c r="E185" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M185" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N185" s="46"/>
       <c r="O185" s="45"/>
@@ -12399,7 +12397,7 @@
         <v>184</v>
       </c>
       <c r="S185" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG185" s="2"/>
       <c r="AH185" s="9"/>
@@ -12411,18 +12409,18 @@
       <c r="B186" s="21"/>
       <c r="C186" s="46"/>
       <c r="D186" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E186" s="46"/>
       <c r="F186" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L186" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M186" s="46"/>
       <c r="N186" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O186" s="45"/>
       <c r="P186" s="21"/>
@@ -12430,7 +12428,7 @@
         <v>185</v>
       </c>
       <c r="S186" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG186" s="2"/>
       <c r="AH186" s="9"/>
@@ -12442,18 +12440,18 @@
       <c r="B187" s="21"/>
       <c r="C187" s="46"/>
       <c r="E187" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F187" s="46"/>
       <c r="G187" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K187" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L187" s="46"/>
       <c r="M187" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O187" s="45"/>
       <c r="P187" s="21"/>
@@ -12461,7 +12459,7 @@
         <v>186</v>
       </c>
       <c r="S187" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG187" s="2"/>
       <c r="AH187" s="9"/>
@@ -12473,12 +12471,12 @@
       <c r="B188" s="21"/>
       <c r="C188" s="46"/>
       <c r="F188" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G188" s="46"/>
       <c r="K188" s="46"/>
       <c r="L188" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O188" s="45"/>
       <c r="P188" s="21"/>
@@ -12486,7 +12484,7 @@
         <v>187</v>
       </c>
       <c r="S188" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG188" s="2"/>
       <c r="AH188" s="9"/>
@@ -12505,7 +12503,7 @@
         <v>188</v>
       </c>
       <c r="S189" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG189" s="2"/>
       <c r="AH189" s="9"/>
@@ -12524,7 +12522,7 @@
         <v>189</v>
       </c>
       <c r="S190" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG190" s="2"/>
       <c r="AH190" s="9"/>
@@ -12536,12 +12534,12 @@
       <c r="B191" s="21"/>
       <c r="C191" s="46"/>
       <c r="E191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G191" s="46"/>
       <c r="K191" s="46"/>
       <c r="M191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O191" s="45"/>
       <c r="P191" s="21"/>
@@ -12549,7 +12547,7 @@
         <v>190</v>
       </c>
       <c r="S191" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG191" s="2"/>
       <c r="AH191" s="9"/>
@@ -12561,12 +12559,12 @@
       <c r="B192" s="21"/>
       <c r="C192" s="46"/>
       <c r="E192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G192" s="46"/>
       <c r="K192" s="46"/>
       <c r="M192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O192" s="45"/>
       <c r="P192" s="21"/>
@@ -12574,7 +12572,7 @@
         <v>191</v>
       </c>
       <c r="S192" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG192" s="2"/>
       <c r="AH192" s="9"/>
@@ -12586,12 +12584,12 @@
       <c r="B193" s="21"/>
       <c r="C193" s="46"/>
       <c r="E193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G193" s="46"/>
       <c r="K193" s="46"/>
       <c r="M193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O193" s="45"/>
       <c r="P193" s="21"/>
@@ -12599,7 +12597,7 @@
         <v>192</v>
       </c>
       <c r="S193" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG193" s="2"/>
       <c r="AH193" s="9"/>
@@ -12611,12 +12609,12 @@
       <c r="B194" s="21"/>
       <c r="C194" s="46"/>
       <c r="E194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G194" s="46"/>
       <c r="K194" s="46"/>
       <c r="M194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O194" s="45"/>
       <c r="P194" s="21"/>
@@ -12624,7 +12622,7 @@
         <v>193</v>
       </c>
       <c r="S194" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG194" s="2"/>
       <c r="AH194" s="9"/>
@@ -12636,12 +12634,12 @@
       <c r="B195" s="21"/>
       <c r="C195" s="46"/>
       <c r="E195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G195" s="46"/>
       <c r="K195" s="46"/>
       <c r="M195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O195" s="45"/>
       <c r="P195" s="21"/>
@@ -12649,7 +12647,7 @@
         <v>194</v>
       </c>
       <c r="S195" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG195" s="2"/>
       <c r="AH195" s="9"/>
@@ -12668,7 +12666,7 @@
         <v>195</v>
       </c>
       <c r="S196" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG196" s="2"/>
       <c r="AH196" s="9"/>
@@ -12680,33 +12678,24 @@
       <c r="B197" s="21"/>
       <c r="C197" s="46"/>
       <c r="D197" t="s">
-        <v>4</v>
-      </c>
-      <c r="E197" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="F197" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="G197" s="46"/>
       <c r="H197" t="s">
-        <v>4</v>
-      </c>
-      <c r="I197" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="J197" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="K197" s="46"/>
       <c r="L197" t="s">
-        <v>4</v>
-      </c>
-      <c r="M197" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="N197" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="O197" s="45"/>
       <c r="P197" s="21"/>
@@ -12714,7 +12703,7 @@
         <v>196</v>
       </c>
       <c r="S197" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG197" s="2"/>
       <c r="AH197" s="9"/>
@@ -12733,7 +12722,7 @@
         <v>197</v>
       </c>
       <c r="S198" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG198" s="2"/>
       <c r="AH198" s="9"/>
@@ -12747,10 +12736,10 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K199" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>2</v>
@@ -12760,7 +12749,7 @@
         <v>198</v>
       </c>
       <c r="S199" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG199" s="2"/>
       <c r="AH199" s="9"/>
@@ -12770,7 +12759,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -12786,13 +12775,13 @@
       <c r="N200" s="8"/>
       <c r="O200" s="5"/>
       <c r="P200" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R200" s="27">
         <v>199</v>
       </c>
       <c r="S200" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG200" s="2"/>
       <c r="AH200" s="9"/>
@@ -12808,7 +12797,7 @@
         <v>200</v>
       </c>
       <c r="S201" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG201" s="2"/>
       <c r="AH201" s="9"/>
@@ -12824,7 +12813,7 @@
         <v>201</v>
       </c>
       <c r="S202" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG202" s="2"/>
       <c r="AH202" s="9"/>
@@ -12840,7 +12829,7 @@
         <v>202</v>
       </c>
       <c r="S203" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG203" s="2"/>
       <c r="AH203" s="9"/>
@@ -12856,7 +12845,7 @@
         <v>203</v>
       </c>
       <c r="S204" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG204" s="2"/>
       <c r="AH204" s="9"/>
@@ -12872,7 +12861,7 @@
         <v>204</v>
       </c>
       <c r="S205" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG205" s="2"/>
       <c r="AH205" s="9"/>
@@ -12888,7 +12877,7 @@
         <v>205</v>
       </c>
       <c r="S206" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG206" s="2"/>
       <c r="AH206" s="9"/>
@@ -12904,7 +12893,7 @@
         <v>206</v>
       </c>
       <c r="S207" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG207" s="2"/>
       <c r="AH207" s="9"/>
@@ -12915,50 +12904,17 @@
       </c>
       <c r="B208" s="21"/>
       <c r="C208" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" t="s">
-        <v>4</v>
-      </c>
-      <c r="E208" t="s">
-        <v>4</v>
-      </c>
-      <c r="F208" t="s">
-        <v>4</v>
-      </c>
-      <c r="G208" t="s">
-        <v>4</v>
-      </c>
-      <c r="H208" t="s">
-        <v>4</v>
-      </c>
-      <c r="I208" t="s">
-        <v>4</v>
-      </c>
-      <c r="J208" t="s">
-        <v>4</v>
-      </c>
-      <c r="K208" t="s">
-        <v>4</v>
-      </c>
-      <c r="L208" t="s">
-        <v>4</v>
-      </c>
-      <c r="M208" t="s">
-        <v>4</v>
-      </c>
-      <c r="N208" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="P208" s="21"/>
       <c r="R208" s="27">
         <v>207</v>
       </c>
       <c r="S208" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG208" s="2"/>
       <c r="AH208" s="9"/>
@@ -12974,7 +12930,7 @@
         <v>208</v>
       </c>
       <c r="S209" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG209" s="2"/>
       <c r="AH209" s="9"/>
@@ -12984,7 +12940,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -13000,13 +12956,13 @@
       <c r="N210" s="8"/>
       <c r="O210" s="5"/>
       <c r="P210" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R210" s="27">
         <v>209</v>
       </c>
       <c r="S210" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG210" s="2"/>
       <c r="AH210" s="9"/>
@@ -13022,7 +12978,7 @@
         <v>210</v>
       </c>
       <c r="S211" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG211" s="2"/>
       <c r="AH211" s="9"/>
@@ -13038,7 +12994,7 @@
         <v>211</v>
       </c>
       <c r="S212" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG212" s="2"/>
       <c r="AH212" s="9"/>
@@ -13054,7 +13010,7 @@
         <v>212</v>
       </c>
       <c r="S213" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG213" s="2"/>
       <c r="AH213" s="9"/>
@@ -13070,7 +13026,7 @@
         <v>213</v>
       </c>
       <c r="S214" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG214" s="2"/>
       <c r="AH214" s="9"/>
@@ -13086,7 +13042,7 @@
         <v>214</v>
       </c>
       <c r="S215" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG215" s="2"/>
       <c r="AH215" s="9"/>
@@ -13102,7 +13058,7 @@
         <v>215</v>
       </c>
       <c r="S216" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG216" s="2"/>
       <c r="AH216" s="9"/>
@@ -13118,7 +13074,7 @@
         <v>216</v>
       </c>
       <c r="S217" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG217" s="2"/>
       <c r="AH217" s="9"/>
@@ -13129,7 +13085,7 @@
       </c>
       <c r="B218" s="21"/>
       <c r="I218" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O218" s="3"/>
       <c r="P218" s="21"/>
@@ -13137,7 +13093,7 @@
         <v>217</v>
       </c>
       <c r="S218" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG218" s="2"/>
       <c r="AH218" s="9"/>
@@ -13153,7 +13109,7 @@
         <v>218</v>
       </c>
       <c r="S219" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG219" s="2"/>
       <c r="AH219" s="9"/>
@@ -13164,7 +13120,7 @@
       </c>
       <c r="B220" s="21"/>
       <c r="I220" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O220" s="3"/>
       <c r="P220" s="21"/>
@@ -13172,7 +13128,7 @@
         <v>219</v>
       </c>
       <c r="S220" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG220" s="2"/>
       <c r="AH220" s="9"/>
@@ -13188,7 +13144,7 @@
         <v>220</v>
       </c>
       <c r="S221" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG221" s="2"/>
       <c r="AH221" s="9"/>
@@ -13199,7 +13155,7 @@
       </c>
       <c r="B222" s="21"/>
       <c r="I222" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O222" s="3"/>
       <c r="P222" s="21"/>
@@ -13207,7 +13163,7 @@
         <v>221</v>
       </c>
       <c r="S222" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG222" s="2"/>
       <c r="AH222" s="9"/>
@@ -13223,7 +13179,7 @@
         <v>222</v>
       </c>
       <c r="S223" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG223" s="2"/>
       <c r="AH223" s="9"/>
@@ -13234,7 +13190,7 @@
       </c>
       <c r="B224" s="21"/>
       <c r="I224" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O224" s="3"/>
       <c r="P224" s="21"/>
@@ -13242,7 +13198,7 @@
         <v>223</v>
       </c>
       <c r="S224" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG224" s="2"/>
       <c r="AH224" s="9"/>
@@ -13258,7 +13214,7 @@
         <v>224</v>
       </c>
       <c r="S225" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG225" s="2"/>
       <c r="AH225" s="9"/>
@@ -13269,7 +13225,7 @@
       </c>
       <c r="B226" s="21"/>
       <c r="I226" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O226" s="3"/>
       <c r="P226" s="21"/>
@@ -13277,7 +13233,7 @@
         <v>225</v>
       </c>
       <c r="S226" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG226" s="2"/>
       <c r="AH226" s="9"/>
@@ -13293,7 +13249,7 @@
         <v>226</v>
       </c>
       <c r="S227" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG227" s="2"/>
       <c r="AH227" s="9"/>
@@ -13309,7 +13265,7 @@
         <v>227</v>
       </c>
       <c r="S228" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG228" s="2"/>
       <c r="AH228" s="9"/>
@@ -13325,7 +13281,7 @@
         <v>228</v>
       </c>
       <c r="S229" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG229" s="2"/>
       <c r="AH229" s="9"/>
@@ -13335,7 +13291,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
@@ -13357,13 +13313,13 @@
       <c r="N230" s="8"/>
       <c r="O230" s="5"/>
       <c r="P230" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R230" s="27">
         <v>229</v>
       </c>
       <c r="S230" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG230" s="2"/>
       <c r="AH230" s="9"/>
@@ -13379,7 +13335,7 @@
         <v>230</v>
       </c>
       <c r="S231" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG231" s="2"/>
       <c r="AH231" s="9"/>
@@ -13395,7 +13351,7 @@
         <v>231</v>
       </c>
       <c r="S232" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG232" s="2"/>
       <c r="AH232" s="9"/>
@@ -13411,7 +13367,7 @@
         <v>232</v>
       </c>
       <c r="S233" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG233" s="2"/>
       <c r="AH233" s="9"/>
@@ -13422,7 +13378,7 @@
       </c>
       <c r="B234" s="21"/>
       <c r="I234" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O234" s="3"/>
       <c r="P234" s="21"/>
@@ -13430,7 +13386,7 @@
         <v>233</v>
       </c>
       <c r="S234" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG234" s="2"/>
       <c r="AH234" s="9"/>
@@ -13446,7 +13402,7 @@
         <v>234</v>
       </c>
       <c r="S235" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG235" s="2"/>
       <c r="AH235" s="9"/>
@@ -13457,7 +13413,7 @@
       </c>
       <c r="B236" s="21"/>
       <c r="K236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O236" s="3"/>
       <c r="P236" s="21"/>
@@ -13465,7 +13421,7 @@
         <v>235</v>
       </c>
       <c r="S236" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG236" s="2"/>
       <c r="AH236" s="9"/>
@@ -13481,7 +13437,7 @@
         <v>236</v>
       </c>
       <c r="S237" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG237" s="2"/>
       <c r="AH237" s="9"/>
@@ -13492,7 +13448,7 @@
       </c>
       <c r="B238" s="21"/>
       <c r="M238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O238" s="3"/>
       <c r="P238" s="21"/>
@@ -13500,7 +13456,7 @@
         <v>237</v>
       </c>
       <c r="S238" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG238" s="2"/>
       <c r="AH238" s="9"/>
@@ -13516,7 +13472,7 @@
         <v>238</v>
       </c>
       <c r="S239" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG239" s="2"/>
       <c r="AH239" s="9"/>
@@ -13532,7 +13488,7 @@
         <v>239</v>
       </c>
       <c r="S240" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG240" s="2"/>
       <c r="AH240" s="9"/>
@@ -13557,7 +13513,7 @@
         <v>240</v>
       </c>
       <c r="S241" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG241" s="2"/>
       <c r="AH241" s="9"/>
@@ -13573,7 +13529,7 @@
         <v>241</v>
       </c>
       <c r="S242" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG242" s="2"/>
       <c r="AH242" s="9"/>
@@ -13584,7 +13540,7 @@
       </c>
       <c r="B243" s="21"/>
       <c r="M243" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O243" s="3"/>
       <c r="P243" s="21"/>
@@ -13592,7 +13548,7 @@
         <v>242</v>
       </c>
       <c r="S243" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG243" s="2"/>
       <c r="AH243" s="9"/>
@@ -13608,7 +13564,7 @@
         <v>243</v>
       </c>
       <c r="S244" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG244" s="2"/>
       <c r="AH244" s="9"/>
@@ -13624,7 +13580,7 @@
         <v>244</v>
       </c>
       <c r="S245" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG245" s="2"/>
       <c r="AH245" s="9"/>
@@ -13640,7 +13596,7 @@
         <v>245</v>
       </c>
       <c r="S246" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG246" s="2"/>
       <c r="AH246" s="9"/>
@@ -13656,7 +13612,7 @@
         <v>246</v>
       </c>
       <c r="S247" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG247" s="2"/>
       <c r="AH247" s="9"/>
@@ -13672,7 +13628,7 @@
         <v>247</v>
       </c>
       <c r="S248" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG248" s="2"/>
       <c r="AH248" s="9"/>
@@ -13682,7 +13638,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
@@ -13698,14 +13654,14 @@
         <v>2</v>
       </c>
       <c r="N249" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P249" s="21"/>
       <c r="R249" s="27">
         <v>248</v>
       </c>
       <c r="S249" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG249" s="2"/>
       <c r="AH249" s="9"/>
@@ -13721,7 +13677,7 @@
         <v>249</v>
       </c>
       <c r="S250" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG250" s="2"/>
       <c r="AH250" s="9"/>
@@ -13737,7 +13693,7 @@
         <v>250</v>
       </c>
       <c r="S251" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG251" s="2"/>
       <c r="AH251" s="9"/>
@@ -13753,7 +13709,7 @@
         <v>251</v>
       </c>
       <c r="S252" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG252" s="2"/>
       <c r="AH252" s="9"/>
@@ -13769,7 +13725,7 @@
         <v>252</v>
       </c>
       <c r="S253" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG253" s="2"/>
       <c r="AH253" s="9"/>
@@ -13785,7 +13741,7 @@
         <v>253</v>
       </c>
       <c r="S254" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG254" s="2"/>
       <c r="AH254" s="9"/>
@@ -13801,7 +13757,7 @@
         <v>254</v>
       </c>
       <c r="S255" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG255" s="2"/>
       <c r="AH255" s="9"/>
@@ -13812,7 +13768,7 @@
       </c>
       <c r="B256" s="21"/>
       <c r="D256" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F256" t="s">
         <v>3</v>
@@ -13827,13 +13783,13 @@
       <c r="N256" s="8"/>
       <c r="O256" s="5"/>
       <c r="P256" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R256" s="27">
         <v>255</v>
       </c>
       <c r="S256" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG256" s="2"/>
       <c r="AH256" s="9"/>
@@ -13849,7 +13805,7 @@
         <v>256</v>
       </c>
       <c r="S257" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG257" s="2"/>
       <c r="AH257" s="9"/>
@@ -13865,7 +13821,7 @@
         <v>257</v>
       </c>
       <c r="S258" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG258" s="2"/>
       <c r="AH258" s="9"/>
@@ -13881,7 +13837,7 @@
         <v>258</v>
       </c>
       <c r="S259" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG259" s="2"/>
       <c r="AH259" s="9"/>
@@ -13897,7 +13853,7 @@
         <v>259</v>
       </c>
       <c r="S260" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG260" s="2"/>
       <c r="AH260" s="9"/>
@@ -13913,7 +13869,7 @@
         <v>260</v>
       </c>
       <c r="S261" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG261" s="2"/>
       <c r="AH261" s="9"/>
@@ -13929,7 +13885,7 @@
         <v>261</v>
       </c>
       <c r="S262" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG262" s="2"/>
       <c r="AH262" s="9"/>
@@ -13939,7 +13895,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
@@ -13952,7 +13908,7 @@
         <v>2</v>
       </c>
       <c r="K263" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O263" s="3"/>
       <c r="P263" s="21"/>
@@ -13960,7 +13916,7 @@
         <v>262</v>
       </c>
       <c r="S263" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG263" s="2"/>
       <c r="AH263" s="9"/>
@@ -13976,7 +13932,7 @@
         <v>263</v>
       </c>
       <c r="S264" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG264" s="2"/>
       <c r="AH264" s="9"/>
@@ -13992,7 +13948,7 @@
         <v>264</v>
       </c>
       <c r="S265" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG265" s="2"/>
       <c r="AH265" s="9"/>
@@ -14008,7 +13964,7 @@
         <v>265</v>
       </c>
       <c r="S266" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG266" s="2"/>
       <c r="AH266" s="9"/>
@@ -14024,7 +13980,7 @@
         <v>266</v>
       </c>
       <c r="S267" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG267" s="2"/>
       <c r="AH267" s="9"/>
@@ -14045,7 +14001,7 @@
         <v>2</v>
       </c>
       <c r="N268" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O268" s="3"/>
       <c r="P268" s="21"/>
@@ -14053,7 +14009,7 @@
         <v>267</v>
       </c>
       <c r="S268" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG268" s="2"/>
       <c r="AH268" s="9"/>
@@ -14064,7 +14020,7 @@
       </c>
       <c r="B269" s="21"/>
       <c r="I269" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O269" s="3"/>
       <c r="P269" s="21"/>
@@ -14072,7 +14028,7 @@
         <v>268</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG269" s="2"/>
       <c r="AH269" s="9"/>
@@ -14084,7 +14040,7 @@
       <c r="B270" s="21"/>
       <c r="I270" s="46"/>
       <c r="N270" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O270" s="3"/>
       <c r="P270" s="21"/>
@@ -14092,7 +14048,7 @@
         <v>269</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG270" s="2"/>
       <c r="AH270" s="9"/>
@@ -14109,7 +14065,7 @@
         <v>270</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG271" s="2"/>
       <c r="AH271" s="9"/>
@@ -14129,7 +14085,7 @@
         <v>271</v>
       </c>
       <c r="S272" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG272" s="2"/>
       <c r="AH272" s="9"/>
@@ -14146,7 +14102,7 @@
         <v>272</v>
       </c>
       <c r="S273" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG273" s="2"/>
       <c r="AH273" s="9"/>
@@ -14163,7 +14119,7 @@
         <v>273</v>
       </c>
       <c r="S274" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG274" s="2"/>
       <c r="AH274" s="9"/>
@@ -14180,7 +14136,7 @@
         <v>274</v>
       </c>
       <c r="S275" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG275" s="2"/>
       <c r="AH275" s="9"/>
@@ -14197,7 +14153,7 @@
         <v>275</v>
       </c>
       <c r="S276" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG276" s="2"/>
       <c r="AH276" s="9"/>
@@ -14208,7 +14164,7 @@
       </c>
       <c r="B277" s="21"/>
       <c r="I277" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O277" s="3"/>
       <c r="P277" s="21"/>
@@ -14216,7 +14172,7 @@
         <v>276</v>
       </c>
       <c r="S277" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG277" s="2"/>
       <c r="AH277" s="9"/>
@@ -14232,7 +14188,7 @@
         <v>277</v>
       </c>
       <c r="S278" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG278" s="2"/>
       <c r="AH278" s="9"/>
@@ -14248,7 +14204,7 @@
         <v>278</v>
       </c>
       <c r="S279" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG279" s="2"/>
       <c r="AH279" s="9"/>
@@ -14264,7 +14220,7 @@
         <v>279</v>
       </c>
       <c r="S280" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG280" s="2"/>
       <c r="AH280" s="9"/>
@@ -14286,7 +14242,7 @@
         <v>280</v>
       </c>
       <c r="S281" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG281" s="2"/>
       <c r="AH281" s="9"/>
@@ -14302,7 +14258,7 @@
         <v>281</v>
       </c>
       <c r="S282" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG282" s="2"/>
       <c r="AH282" s="9"/>
@@ -14318,7 +14274,7 @@
         <v>282</v>
       </c>
       <c r="S283" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG283" s="2"/>
       <c r="AH283" s="9"/>
@@ -14334,7 +14290,7 @@
         <v>283</v>
       </c>
       <c r="S284" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG284" s="2"/>
       <c r="AH284" s="9"/>
@@ -14350,7 +14306,7 @@
         <v>284</v>
       </c>
       <c r="S285" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG285" s="2"/>
       <c r="AH285" s="9"/>
@@ -14361,22 +14317,22 @@
       </c>
       <c r="B286" s="21"/>
       <c r="D286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O286" s="3"/>
       <c r="P286" s="21"/>
@@ -14384,7 +14340,7 @@
         <v>285</v>
       </c>
       <c r="S286" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG286" s="2"/>
       <c r="AH286" s="9"/>
@@ -14400,7 +14356,7 @@
         <v>286</v>
       </c>
       <c r="S287" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG287" s="2"/>
       <c r="AH287" s="9"/>
@@ -14416,7 +14372,7 @@
         <v>287</v>
       </c>
       <c r="S288" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG288" s="2"/>
       <c r="AH288" s="9"/>
@@ -14427,50 +14383,29 @@
       </c>
       <c r="B289" s="21"/>
       <c r="C289" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D289" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E289" t="s">
-        <v>4</v>
-      </c>
-      <c r="F289" t="s">
-        <v>4</v>
-      </c>
-      <c r="G289" t="s">
-        <v>4</v>
-      </c>
-      <c r="H289" t="s">
-        <v>4</v>
-      </c>
-      <c r="I289" t="s">
-        <v>4</v>
-      </c>
-      <c r="J289" t="s">
-        <v>4</v>
-      </c>
-      <c r="K289" t="s">
-        <v>4</v>
-      </c>
-      <c r="L289" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M289" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="N289" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O289" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P289" s="21"/>
       <c r="R289" s="27">
         <v>288</v>
       </c>
       <c r="S289" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG289" s="2"/>
       <c r="AH289" s="9"/>
@@ -14486,7 +14421,7 @@
         <v>289</v>
       </c>
       <c r="S290" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG290" s="2"/>
       <c r="AH290" s="9"/>
@@ -14502,7 +14437,7 @@
         <v>290</v>
       </c>
       <c r="S291" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T291" s="7"/>
       <c r="U291" s="7"/>
@@ -14531,7 +14466,7 @@
         <v>291</v>
       </c>
       <c r="S292" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="T292" s="7"/>
       <c r="U292" s="7"/>
@@ -14547,7 +14482,7 @@
       <c r="AE292" s="7"/>
       <c r="AF292" s="7"/>
       <c r="AG292" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AH292" s="9"/>
       <c r="AI292" s="7"/>
@@ -14568,9 +14503,7 @@
       <c r="R293" s="27">
         <v>292</v>
       </c>
-      <c r="S293" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="S293" s="16"/>
       <c r="T293" s="2"/>
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
@@ -14584,9 +14517,7 @@
       <c r="AD293" s="3"/>
       <c r="AE293" s="3"/>
       <c r="AF293" s="49"/>
-      <c r="AG293" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG293" s="2"/>
       <c r="AH293" s="9"/>
       <c r="AI293" s="7"/>
       <c r="AJ293" s="7"/>
@@ -14606,12 +14537,8 @@
       <c r="R294" s="50">
         <v>293</v>
       </c>
-      <c r="S294" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG294" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S294" s="49"/>
+      <c r="AG294" s="2"/>
       <c r="AH294" s="9"/>
       <c r="AI294" s="7"/>
       <c r="AJ294" s="7"/>
@@ -14627,22 +14554,18 @@
       </c>
       <c r="B295" s="21"/>
       <c r="F295" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J295" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O295" s="3"/>
       <c r="P295" s="21"/>
       <c r="R295" s="50">
         <v>294</v>
       </c>
-      <c r="S295" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG295" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S295" s="49"/>
+      <c r="AG295" s="2"/>
       <c r="AH295" s="9"/>
       <c r="AI295" s="7"/>
       <c r="AJ295" s="7"/>
@@ -14662,12 +14585,8 @@
       <c r="R296" s="50">
         <v>295</v>
       </c>
-      <c r="S296" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG296" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S296" s="49"/>
+      <c r="AG296" s="2"/>
       <c r="AH296" s="9"/>
       <c r="AI296" s="7"/>
       <c r="AJ296" s="7"/>
@@ -14677,7 +14596,7 @@
       <c r="AN296" s="7"/>
       <c r="AO296" s="7"/>
       <c r="AP296" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="297" spans="1:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14690,12 +14609,8 @@
       <c r="R297" s="50">
         <v>296</v>
       </c>
-      <c r="S297" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG297" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S297" s="49"/>
+      <c r="AG297" s="2"/>
       <c r="AH297" s="9"/>
       <c r="AI297" s="7"/>
       <c r="AJ297" s="7"/>
@@ -14711,25 +14626,21 @@
       </c>
       <c r="B298" s="21"/>
       <c r="E298" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I298" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L298" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O298" s="3"/>
       <c r="P298" s="21"/>
       <c r="R298" s="50">
         <v>297</v>
       </c>
-      <c r="S298" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG298" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S298" s="49"/>
+      <c r="AG298" s="2"/>
       <c r="AH298" s="9"/>
       <c r="AI298" s="7"/>
       <c r="AJ298" s="7"/>
@@ -14749,21 +14660,17 @@
       <c r="R299" s="50">
         <v>298</v>
       </c>
-      <c r="S299" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S299" s="49"/>
       <c r="T299" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z299" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF299" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG299" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AG299" s="2"/>
       <c r="AH299" s="9"/>
       <c r="AI299" s="7"/>
       <c r="AJ299" s="7"/>
@@ -14783,24 +14690,20 @@
       <c r="R300" s="50">
         <v>299</v>
       </c>
-      <c r="S300" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S300" s="49"/>
       <c r="U300" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y300" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA300" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE300" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG300" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AG300" s="2"/>
       <c r="AH300" s="9"/>
       <c r="AI300" s="7"/>
       <c r="AJ300" s="7"/>
@@ -14820,30 +14723,26 @@
       <c r="R301" s="50">
         <v>300</v>
       </c>
-      <c r="S301" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S301" s="49"/>
       <c r="U301" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V301" t="s">
+        <v>87</v>
+      </c>
+      <c r="X301" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE301" t="s">
         <v>88</v>
       </c>
-      <c r="X301" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB301" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD301" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE301" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG301" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG301" s="2"/>
       <c r="AH301" s="9"/>
       <c r="AI301" s="7"/>
       <c r="AJ301" s="7"/>
@@ -14863,24 +14762,20 @@
       <c r="R302" s="50">
         <v>301</v>
       </c>
-      <c r="S302" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S302" s="49"/>
       <c r="U302" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W302" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE302" t="s">
         <v>88</v>
       </c>
-      <c r="AC302" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE302" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG302" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG302" s="2"/>
       <c r="AH302" s="9"/>
       <c r="AI302" s="7"/>
       <c r="AJ302" s="7"/>
@@ -14900,24 +14795,20 @@
       <c r="R303" s="50">
         <v>302</v>
       </c>
-      <c r="S303" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S303" s="49"/>
       <c r="U303" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W303" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC303" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE303" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG303" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AG303" s="2"/>
       <c r="AH303" s="9"/>
       <c r="AI303" s="7"/>
       <c r="AJ303" s="7"/>
@@ -14936,19 +14827,19 @@
         <v>20</v>
       </c>
       <c r="F304" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G304" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I304" t="s">
         <v>20</v>
       </c>
       <c r="K304" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L304" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N304" t="s">
         <v>20</v>
@@ -14958,24 +14849,20 @@
       <c r="R304" s="50">
         <v>303</v>
       </c>
-      <c r="S304" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S304" s="49"/>
       <c r="U304" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W304" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC304" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE304" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG304" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AG304" s="2"/>
       <c r="AH304" s="9"/>
       <c r="AI304" s="7"/>
       <c r="AJ304" s="7"/>
@@ -14999,18 +14886,14 @@
       <c r="R305" s="50">
         <v>304</v>
       </c>
-      <c r="S305" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S305" s="49"/>
       <c r="W305" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC305" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG305" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AG305" s="2"/>
       <c r="AH305" s="9"/>
       <c r="AI305" s="7"/>
       <c r="AJ305" s="7"/>
@@ -15034,18 +14917,14 @@
       <c r="R306" s="50">
         <v>305</v>
       </c>
-      <c r="S306" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S306" s="49"/>
       <c r="W306" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC306" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG306" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AG306" s="2"/>
       <c r="AH306" s="9"/>
       <c r="AI306" s="7"/>
       <c r="AJ306" s="7"/>
@@ -15061,29 +14940,25 @@
       </c>
       <c r="B307" s="21"/>
       <c r="D307" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F307" s="46"/>
       <c r="G307" s="46"/>
       <c r="I307" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K307" s="46"/>
       <c r="L307" s="46"/>
       <c r="N307" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O307" s="3"/>
       <c r="P307" s="21"/>
       <c r="R307" s="50">
         <v>306</v>
       </c>
-      <c r="S307" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG307" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S307" s="49"/>
+      <c r="AG307" s="2"/>
       <c r="AH307" s="9"/>
       <c r="AI307" s="7"/>
       <c r="AJ307" s="7"/>
@@ -15107,18 +14982,14 @@
       <c r="R308" s="50">
         <v>307</v>
       </c>
-      <c r="S308" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S308" s="49"/>
       <c r="W308" t="s">
         <v>20</v>
       </c>
       <c r="AC308" t="s">
         <v>20</v>
       </c>
-      <c r="AG308" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG308" s="2"/>
       <c r="AH308" s="9"/>
       <c r="AI308" s="7"/>
       <c r="AJ308" s="7"/>
@@ -15134,29 +15005,25 @@
       </c>
       <c r="B309" s="21"/>
       <c r="D309" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F309" s="46"/>
       <c r="G309" s="46"/>
       <c r="I309" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K309" s="46"/>
       <c r="L309" s="46"/>
       <c r="N309" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O309" s="3"/>
       <c r="P309" s="21"/>
       <c r="R309" s="50">
         <v>308</v>
       </c>
-      <c r="S309" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG309" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S309" s="49"/>
+      <c r="AG309" s="2"/>
       <c r="AH309" s="9"/>
       <c r="AI309" s="7"/>
       <c r="AJ309" s="7"/>
@@ -15180,12 +15047,8 @@
       <c r="R310" s="50">
         <v>309</v>
       </c>
-      <c r="S310" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG310" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S310" s="49"/>
+      <c r="AG310" s="2"/>
       <c r="AH310" s="9"/>
       <c r="AI310" s="7"/>
       <c r="AJ310" s="7"/>
@@ -15209,12 +15072,8 @@
       <c r="R311" s="50">
         <v>310</v>
       </c>
-      <c r="S311" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG311" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S311" s="49"/>
+      <c r="AG311" s="2"/>
       <c r="AH311" s="9"/>
       <c r="AI311" s="7"/>
       <c r="AJ311" s="7"/>
@@ -15238,18 +15097,14 @@
       <c r="R312" s="50">
         <v>311</v>
       </c>
-      <c r="S312" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S312" s="49"/>
       <c r="X312" t="s">
         <v>19</v>
       </c>
       <c r="AB312" t="s">
         <v>19</v>
       </c>
-      <c r="AG312" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG312" s="2"/>
       <c r="AH312" s="9"/>
       <c r="AI312" s="7"/>
       <c r="AJ312" s="7"/>
@@ -15273,12 +15128,8 @@
       <c r="R313" s="50">
         <v>312</v>
       </c>
-      <c r="S313" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG313" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S313" s="49"/>
+      <c r="AG313" s="2"/>
       <c r="AH313" s="9"/>
       <c r="AI313" s="7"/>
       <c r="AJ313" s="7"/>
@@ -15302,12 +15153,8 @@
       <c r="R314" s="50">
         <v>313</v>
       </c>
-      <c r="S314" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG314" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S314" s="49"/>
+      <c r="AG314" s="2"/>
       <c r="AH314" s="9"/>
       <c r="AI314" s="7"/>
       <c r="AJ314" s="7"/>
@@ -15340,12 +15187,8 @@
       <c r="R315" s="50">
         <v>314</v>
       </c>
-      <c r="S315" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG315" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S315" s="49"/>
+      <c r="AG315" s="2"/>
       <c r="AH315" s="9"/>
       <c r="AI315" s="7"/>
       <c r="AJ315" s="7"/>
@@ -15369,24 +15212,20 @@
       <c r="R316" s="50">
         <v>315</v>
       </c>
-      <c r="S316" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S316" s="49"/>
       <c r="U316" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y316" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA316" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE316" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG316" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AG316" s="2"/>
       <c r="AH316" s="9"/>
       <c r="AI316" s="7"/>
       <c r="AJ316" s="7"/>
@@ -15410,18 +15249,14 @@
       <c r="R317" s="50">
         <v>316</v>
       </c>
-      <c r="S317" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S317" s="49"/>
       <c r="U317" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE317" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG317" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AG317" s="2"/>
       <c r="AH317" s="9"/>
       <c r="AI317" s="7"/>
       <c r="AJ317" s="7"/>
@@ -15445,12 +15280,8 @@
       <c r="R318" s="50">
         <v>317</v>
       </c>
-      <c r="S318" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG318" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S318" s="49"/>
+      <c r="AG318" s="2"/>
       <c r="AH318" s="9"/>
       <c r="AI318" s="7"/>
       <c r="AJ318" s="7"/>
@@ -15483,12 +15314,8 @@
       <c r="R319" s="50">
         <v>318</v>
       </c>
-      <c r="S319" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG319" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S319" s="49"/>
+      <c r="AG319" s="2"/>
       <c r="AH319" s="9"/>
       <c r="AI319" s="7"/>
       <c r="AJ319" s="7"/>
@@ -15512,12 +15339,8 @@
       <c r="R320" s="50">
         <v>319</v>
       </c>
-      <c r="S320" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG320" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S320" s="49"/>
+      <c r="AG320" s="2"/>
       <c r="AH320" s="9"/>
       <c r="AI320" s="7"/>
       <c r="AJ320" s="7"/>
@@ -15541,12 +15364,8 @@
       <c r="R321" s="50">
         <v>320</v>
       </c>
-      <c r="S321" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG321" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S321" s="49"/>
+      <c r="AG321" s="2"/>
       <c r="AH321" s="9"/>
       <c r="AI321" s="7"/>
       <c r="AJ321" s="7"/>
@@ -15570,12 +15389,8 @@
       <c r="R322" s="50">
         <v>321</v>
       </c>
-      <c r="S322" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG322" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S322" s="49"/>
+      <c r="AG322" s="2"/>
       <c r="AH322" s="9"/>
       <c r="AI322" s="7"/>
       <c r="AJ322" s="7"/>
@@ -15599,12 +15414,8 @@
       <c r="R323" s="50">
         <v>322</v>
       </c>
-      <c r="S323" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG323" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S323" s="49"/>
+      <c r="AG323" s="2"/>
       <c r="AH323" s="9"/>
       <c r="AI323" s="7"/>
       <c r="AJ323" s="7"/>
@@ -15628,30 +15439,26 @@
       <c r="R324" s="50">
         <v>323</v>
       </c>
-      <c r="S324" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S324" s="49"/>
       <c r="V324" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W324" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X324" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB324" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC324" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD324" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG324" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AG324" s="2"/>
       <c r="AH324" s="9"/>
       <c r="AI324" s="7"/>
       <c r="AJ324" s="7"/>
@@ -15667,12 +15474,12 @@
       </c>
       <c r="B325" s="21"/>
       <c r="D325" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F325" s="46"/>
       <c r="G325" s="46"/>
       <c r="I325" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K325" s="46"/>
       <c r="L325" s="46"/>
@@ -15681,30 +15488,26 @@
       <c r="R325" s="50">
         <v>324</v>
       </c>
-      <c r="S325" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S325" s="49"/>
       <c r="V325" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W325" t="s">
         <v>19</v>
       </c>
       <c r="X325" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB325" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC325" t="s">
         <v>19</v>
       </c>
       <c r="AD325" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG325" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG325" s="2"/>
       <c r="AH325" s="9"/>
       <c r="AI325" s="7"/>
       <c r="AJ325" s="7"/>
@@ -15728,24 +15531,20 @@
       <c r="R326" s="50">
         <v>325</v>
       </c>
-      <c r="S326" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S326" s="49"/>
       <c r="V326" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X326" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB326" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD326" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG326" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG326" s="2"/>
       <c r="AH326" s="9"/>
       <c r="AI326" s="7"/>
       <c r="AJ326" s="7"/>
@@ -15769,12 +15568,8 @@
       <c r="R327" s="50">
         <v>326</v>
       </c>
-      <c r="S327" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG327" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S327" s="49"/>
+      <c r="AG327" s="2"/>
       <c r="AH327" s="9"/>
       <c r="AI327" s="7"/>
       <c r="AJ327" s="7"/>
@@ -15798,12 +15593,8 @@
       <c r="R328" s="50">
         <v>327</v>
       </c>
-      <c r="S328" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG328" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S328" s="49"/>
+      <c r="AG328" s="2"/>
       <c r="AH328" s="9"/>
       <c r="AI328" s="7"/>
       <c r="AJ328" s="7"/>
@@ -15819,37 +15610,33 @@
       </c>
       <c r="B329" s="21"/>
       <c r="C329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F329" s="46"/>
       <c r="G329" s="46"/>
       <c r="H329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K329" s="46"/>
       <c r="L329" s="46"/>
       <c r="M329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P329" s="21"/>
       <c r="R329" s="50">
         <v>328</v>
       </c>
-      <c r="S329" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG329" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S329" s="49"/>
+      <c r="AG329" s="2"/>
       <c r="AH329" s="9"/>
       <c r="AI329" s="7"/>
       <c r="AJ329" s="7"/>
@@ -15865,29 +15652,25 @@
       </c>
       <c r="B330" s="21"/>
       <c r="D330" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F330" s="46"/>
       <c r="G330" s="46"/>
       <c r="I330" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K330" s="46"/>
       <c r="L330" s="46"/>
       <c r="N330" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O330" s="3"/>
       <c r="P330" s="21"/>
       <c r="R330" s="50">
         <v>329</v>
       </c>
-      <c r="S330" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG330" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S330" s="49"/>
+      <c r="AG330" s="2"/>
       <c r="AH330" s="9"/>
       <c r="AI330" s="7"/>
       <c r="AJ330" s="7"/>
@@ -15911,12 +15694,8 @@
       <c r="R331" s="50">
         <v>330</v>
       </c>
-      <c r="S331" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG331" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S331" s="49"/>
+      <c r="AG331" s="2"/>
       <c r="AH331" s="9"/>
       <c r="AI331" s="7"/>
       <c r="AJ331" s="7"/>
@@ -15940,18 +15719,14 @@
       <c r="R332" s="50">
         <v>331</v>
       </c>
-      <c r="S332" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S332" s="49"/>
       <c r="X332" t="s">
         <v>20</v>
       </c>
       <c r="AB332" t="s">
         <v>20</v>
       </c>
-      <c r="AG332" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG332" s="2"/>
       <c r="AH332" s="9"/>
       <c r="AI332" s="7"/>
       <c r="AJ332" s="7"/>
@@ -15966,33 +15741,29 @@
         <v>332</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F333" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G333" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K333" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L333" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O333" s="3"/>
       <c r="P333" s="21" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="R333" s="50">
         <v>332</v>
       </c>
-      <c r="S333" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG333" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S333" s="49"/>
+      <c r="AG333" s="2"/>
       <c r="AH333" s="9"/>
       <c r="AI333" s="7"/>
       <c r="AJ333" s="7"/>
@@ -16006,22 +15777,14 @@
       <c r="A334" s="25">
         <v>333</v>
       </c>
-      <c r="B334" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B334" s="16"/>
       <c r="O334" s="3"/>
-      <c r="P334" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P334" s="21"/>
       <c r="R334" s="50">
         <v>333</v>
       </c>
-      <c r="S334" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG334" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S334" s="49"/>
+      <c r="AG334" s="2"/>
       <c r="AH334" s="9"/>
       <c r="AI334" s="7"/>
       <c r="AJ334" s="7"/>
@@ -16035,22 +15798,14 @@
       <c r="A335" s="25">
         <v>334</v>
       </c>
-      <c r="B335" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B335" s="16"/>
       <c r="O335" s="3"/>
-      <c r="P335" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P335" s="21"/>
       <c r="R335" s="50">
         <v>334</v>
       </c>
-      <c r="S335" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG335" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S335" s="49"/>
+      <c r="AG335" s="2"/>
       <c r="AH335" s="9"/>
       <c r="AI335" s="7"/>
       <c r="AJ335" s="7"/>
@@ -16064,9 +15819,7 @@
       <c r="A336" s="25">
         <v>335</v>
       </c>
-      <c r="B336" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B336" s="16"/>
       <c r="C336" t="s">
         <v>3</v>
       </c>
@@ -16088,18 +15841,12 @@
       <c r="O336" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P336" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P336" s="21"/>
       <c r="R336" s="50">
         <v>335</v>
       </c>
-      <c r="S336" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG336" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S336" s="49"/>
+      <c r="AG336" s="2"/>
       <c r="AH336" s="9"/>
       <c r="AI336" s="7"/>
       <c r="AJ336" s="7"/>
@@ -16113,28 +15860,20 @@
       <c r="A337" s="25">
         <v>336</v>
       </c>
-      <c r="B337" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B337" s="16"/>
       <c r="O337" s="3"/>
-      <c r="P337" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P337" s="21"/>
       <c r="R337" s="50">
         <v>336</v>
       </c>
-      <c r="S337" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="S337" s="49"/>
       <c r="W337" t="s">
         <v>13</v>
       </c>
       <c r="AC337" t="s">
         <v>13</v>
       </c>
-      <c r="AG337" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG337" s="2"/>
       <c r="AH337" s="9"/>
       <c r="AI337" s="7"/>
       <c r="AJ337" s="7"/>
@@ -16148,34 +15887,26 @@
       <c r="A338" s="25">
         <v>337</v>
       </c>
-      <c r="B338" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B338" s="16"/>
       <c r="F338" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G338" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K338" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L338" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O338" s="3"/>
-      <c r="P338" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P338" s="21"/>
       <c r="R338" s="50">
         <v>337</v>
       </c>
-      <c r="S338" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG338" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S338" s="49"/>
+      <c r="AG338" s="2"/>
       <c r="AH338" s="9"/>
       <c r="AI338" s="7"/>
       <c r="AJ338" s="7"/>
@@ -16189,22 +15920,14 @@
       <c r="A339" s="25">
         <v>338</v>
       </c>
-      <c r="B339" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B339" s="16"/>
       <c r="O339" s="3"/>
-      <c r="P339" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P339" s="21"/>
       <c r="R339" s="50">
         <v>338</v>
       </c>
-      <c r="S339" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG339" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S339" s="49"/>
+      <c r="AG339" s="2"/>
       <c r="AH339" s="9"/>
       <c r="AI339" s="7"/>
       <c r="AJ339" s="7"/>
@@ -16218,22 +15941,14 @@
       <c r="A340" s="25">
         <v>339</v>
       </c>
-      <c r="B340" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B340" s="16"/>
       <c r="O340" s="3"/>
-      <c r="P340" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P340" s="21"/>
       <c r="R340" s="50">
         <v>339</v>
       </c>
-      <c r="S340" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG340" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="S340" s="49"/>
+      <c r="AG340" s="2"/>
       <c r="AH340" s="9"/>
       <c r="AI340" s="7"/>
       <c r="AJ340" s="7"/>
@@ -16247,9 +15962,7 @@
       <c r="A341" s="25">
         <v>340</v>
       </c>
-      <c r="B341" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B341" s="16"/>
       <c r="F341" s="8" t="s">
         <v>3</v>
       </c>
@@ -16263,14 +15976,12 @@
         <v>2</v>
       </c>
       <c r="O341" s="3"/>
-      <c r="P341" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P341" s="21"/>
       <c r="R341" s="51">
         <v>340</v>
       </c>
       <c r="S341" s="49" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="T341" s="2"/>
       <c r="U341" s="3"/>
@@ -16286,7 +15997,7 @@
       <c r="AE341" s="3"/>
       <c r="AF341" s="49"/>
       <c r="AG341" s="2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="AH341" s="9"/>
       <c r="AI341" s="7"/>
@@ -16301,18 +16012,14 @@
       <c r="A342" s="25">
         <v>341</v>
       </c>
-      <c r="B342" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B342" s="16"/>
       <c r="O342" s="3"/>
-      <c r="P342" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P342" s="21"/>
       <c r="R342" s="51">
         <v>341</v>
       </c>
       <c r="S342" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T342" s="2"/>
       <c r="U342" s="3"/>
@@ -16341,18 +16048,14 @@
       <c r="A343" s="25">
         <v>342</v>
       </c>
-      <c r="B343" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B343" s="16"/>
       <c r="O343" s="3"/>
-      <c r="P343" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P343" s="21"/>
       <c r="R343" s="51">
         <v>342</v>
       </c>
       <c r="S343" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T343" s="2"/>
       <c r="U343" s="3"/>
@@ -16381,18 +16084,14 @@
       <c r="A344" s="25">
         <v>343</v>
       </c>
-      <c r="B344" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B344" s="16"/>
       <c r="O344" s="3"/>
-      <c r="P344" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P344" s="21"/>
       <c r="R344" s="51">
         <v>343</v>
       </c>
       <c r="S344" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T344" s="2"/>
       <c r="U344" s="3"/>
@@ -16421,18 +16120,14 @@
       <c r="A345" s="25">
         <v>344</v>
       </c>
-      <c r="B345" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B345" s="16"/>
       <c r="O345" s="3"/>
-      <c r="P345" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P345" s="21"/>
       <c r="R345" s="51">
         <v>344</v>
       </c>
       <c r="S345" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T345" s="2"/>
       <c r="U345" s="3"/>
@@ -16461,18 +16156,14 @@
       <c r="A346" s="25">
         <v>345</v>
       </c>
-      <c r="B346" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B346" s="16"/>
       <c r="O346" s="3"/>
-      <c r="P346" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P346" s="21"/>
       <c r="R346" s="51">
         <v>345</v>
       </c>
       <c r="S346" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T346" s="2"/>
       <c r="U346" s="3"/>
@@ -16501,18 +16192,14 @@
       <c r="A347" s="25">
         <v>346</v>
       </c>
-      <c r="B347" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B347" s="16"/>
       <c r="O347" s="3"/>
-      <c r="P347" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P347" s="21"/>
       <c r="R347" s="51">
         <v>346</v>
       </c>
       <c r="S347" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T347" s="2"/>
       <c r="U347" s="3"/>
@@ -16533,18 +16220,14 @@
       <c r="A348" s="25">
         <v>347</v>
       </c>
-      <c r="B348" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B348" s="16"/>
       <c r="O348" s="3"/>
-      <c r="P348" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P348" s="21"/>
       <c r="R348" s="51">
         <v>347</v>
       </c>
       <c r="S348" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T348" s="2"/>
       <c r="U348" s="3"/>
@@ -16565,18 +16248,14 @@
       <c r="A349" s="25">
         <v>348</v>
       </c>
-      <c r="B349" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B349" s="16"/>
       <c r="O349" s="3"/>
-      <c r="P349" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P349" s="21"/>
       <c r="R349" s="51">
         <v>348</v>
       </c>
       <c r="S349" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T349" s="2"/>
       <c r="U349" s="3"/>
@@ -16597,18 +16276,14 @@
       <c r="A350" s="25">
         <v>349</v>
       </c>
-      <c r="B350" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B350" s="16"/>
       <c r="O350" s="3"/>
-      <c r="P350" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P350" s="21"/>
       <c r="R350" s="51">
         <v>349</v>
       </c>
       <c r="S350" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T350" s="2"/>
       <c r="U350" s="3"/>
@@ -16629,18 +16304,14 @@
       <c r="A351" s="25">
         <v>350</v>
       </c>
-      <c r="B351" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B351" s="16"/>
       <c r="O351" s="3"/>
-      <c r="P351" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="P351" s="21"/>
       <c r="R351" s="51">
         <v>350</v>
       </c>
       <c r="S351" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T351" s="2"/>
       <c r="U351" s="3"/>
@@ -16662,37 +16333,37 @@
         <v>351</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P352" s="21" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="R352" s="51">
         <v>351</v>
       </c>
       <c r="S352" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T352" s="2"/>
       <c r="U352" s="3"/>
@@ -16715,22 +16386,22 @@
       </c>
       <c r="B353" s="21"/>
       <c r="D353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O353" s="3"/>
       <c r="P353" s="21"/>
@@ -16738,7 +16409,7 @@
         <v>352</v>
       </c>
       <c r="S353" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T353" s="2"/>
       <c r="U353" s="3"/>
@@ -16766,7 +16437,7 @@
         <v>353</v>
       </c>
       <c r="S354" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T354" s="2"/>
       <c r="U354" s="3"/>
@@ -16794,7 +16465,7 @@
         <v>354</v>
       </c>
       <c r="S355" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T355" s="2"/>
       <c r="U355" s="3"/>
@@ -16822,7 +16493,7 @@
         <v>355</v>
       </c>
       <c r="S356" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T356" s="2"/>
       <c r="U356" s="3"/>
@@ -16850,7 +16521,7 @@
         <v>356</v>
       </c>
       <c r="S357" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T357" s="2"/>
       <c r="U357" s="3"/>
@@ -16878,7 +16549,7 @@
         <v>357</v>
       </c>
       <c r="S358" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T358" s="2"/>
       <c r="U358" s="3"/>
@@ -16906,7 +16577,7 @@
         <v>358</v>
       </c>
       <c r="S359" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T359" s="2"/>
       <c r="U359" s="3"/>
@@ -16948,7 +16619,7 @@
         <v>359</v>
       </c>
       <c r="S360" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T360" s="2"/>
       <c r="U360" s="3"/>
@@ -16982,7 +16653,7 @@
         <v>360</v>
       </c>
       <c r="S361" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T361" s="2"/>
       <c r="U361" s="3"/>
@@ -17010,7 +16681,7 @@
         <v>361</v>
       </c>
       <c r="S362" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T362" s="2"/>
       <c r="U362" s="3"/>
@@ -17038,7 +16709,7 @@
         <v>362</v>
       </c>
       <c r="S363" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T363" s="2"/>
       <c r="U363" s="3"/>
@@ -17061,7 +16732,7 @@
       </c>
       <c r="B364" s="21"/>
       <c r="I364" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O364" s="3"/>
       <c r="P364" s="21"/>
@@ -17069,7 +16740,7 @@
         <v>363</v>
       </c>
       <c r="S364" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T364" s="2"/>
       <c r="U364" s="3"/>
@@ -17098,7 +16769,7 @@
         <v>364</v>
       </c>
       <c r="S365" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T365" s="2"/>
       <c r="U365" s="3"/>
@@ -17127,7 +16798,7 @@
         <v>365</v>
       </c>
       <c r="S366" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T366" s="2"/>
       <c r="U366" s="3"/>
@@ -17156,7 +16827,7 @@
         <v>366</v>
       </c>
       <c r="S367" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T367" s="2"/>
       <c r="U367" s="3"/>
@@ -17191,7 +16862,7 @@
         <v>367</v>
       </c>
       <c r="S368" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T368" s="2"/>
       <c r="U368" s="3"/>
@@ -17220,7 +16891,7 @@
         <v>368</v>
       </c>
       <c r="S369" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T369" s="2"/>
       <c r="U369" s="3"/>
@@ -17249,7 +16920,7 @@
         <v>369</v>
       </c>
       <c r="S370" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T370" s="2"/>
       <c r="U370" s="3"/>
@@ -17278,7 +16949,7 @@
         <v>370</v>
       </c>
       <c r="S371" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T371" s="2"/>
       <c r="U371" s="3"/>
@@ -17301,13 +16972,13 @@
       </c>
       <c r="B372" s="21"/>
       <c r="F372" t="s">
+        <v>84</v>
+      </c>
+      <c r="I372" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I372" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="L372" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O372" s="3"/>
       <c r="P372" s="21"/>
@@ -17315,7 +16986,7 @@
         <v>371</v>
       </c>
       <c r="S372" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T372" s="2"/>
       <c r="U372" s="3"/>
@@ -17346,7 +17017,7 @@
         <v>372</v>
       </c>
       <c r="S373" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T373" s="2"/>
       <c r="U373" s="3"/>
@@ -17377,7 +17048,7 @@
         <v>373</v>
       </c>
       <c r="S374" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T374" s="2"/>
       <c r="U374" s="3"/>
@@ -17408,7 +17079,7 @@
         <v>374</v>
       </c>
       <c r="S375" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T375" s="2"/>
       <c r="U375" s="3"/>
@@ -17431,7 +17102,7 @@
       </c>
       <c r="B376" s="21"/>
       <c r="D376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F376" s="46"/>
       <c r="H376" t="s">
@@ -17443,7 +17114,7 @@
       </c>
       <c r="L376" s="46"/>
       <c r="N376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O376" s="3"/>
       <c r="P376" s="21"/>
@@ -17451,7 +17122,7 @@
         <v>375</v>
       </c>
       <c r="S376" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T376" s="2"/>
       <c r="U376" s="3"/>
@@ -17482,7 +17153,7 @@
         <v>376</v>
       </c>
       <c r="S377" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T377" s="2"/>
       <c r="U377" s="3"/>
@@ -17513,7 +17184,7 @@
         <v>377</v>
       </c>
       <c r="S378" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T378" s="2"/>
       <c r="U378" s="3"/>
@@ -17544,7 +17215,7 @@
         <v>378</v>
       </c>
       <c r="S379" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T379" s="2"/>
       <c r="U379" s="3"/>
@@ -17567,13 +17238,13 @@
       </c>
       <c r="B380" s="21"/>
       <c r="F380" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I380" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L380" t="s">
         <v>85</v>
-      </c>
-      <c r="L380" t="s">
-        <v>86</v>
       </c>
       <c r="O380" s="3"/>
       <c r="P380" s="21"/>
@@ -17581,7 +17252,7 @@
         <v>379</v>
       </c>
       <c r="S380" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T380" s="2"/>
       <c r="U380" s="3"/>
@@ -17610,7 +17281,7 @@
         <v>380</v>
       </c>
       <c r="S381" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T381" s="2"/>
       <c r="U381" s="3"/>
@@ -17639,7 +17310,7 @@
         <v>381</v>
       </c>
       <c r="S382" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T382" s="2"/>
       <c r="U382" s="3"/>
@@ -17668,7 +17339,7 @@
         <v>382</v>
       </c>
       <c r="S383" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T383" s="2"/>
       <c r="U383" s="3"/>
@@ -17703,7 +17374,7 @@
         <v>383</v>
       </c>
       <c r="S384" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T384" s="2"/>
       <c r="U384" s="3"/>
@@ -17732,7 +17403,7 @@
         <v>384</v>
       </c>
       <c r="S385" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T385" s="2"/>
       <c r="U385" s="3"/>
@@ -17761,7 +17432,7 @@
         <v>385</v>
       </c>
       <c r="S386" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T386" s="2"/>
       <c r="U386" s="3"/>
@@ -17790,7 +17461,7 @@
         <v>386</v>
       </c>
       <c r="S387" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T387" s="2"/>
       <c r="U387" s="3"/>
@@ -17813,13 +17484,13 @@
       </c>
       <c r="B388" s="21"/>
       <c r="E388" t="s">
+        <v>84</v>
+      </c>
+      <c r="I388" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I388" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="M388" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O388" s="3"/>
       <c r="P388" s="21"/>
@@ -17827,7 +17498,7 @@
         <v>387</v>
       </c>
       <c r="S388" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T388" s="2"/>
       <c r="U388" s="3"/>
@@ -17850,13 +17521,13 @@
       </c>
       <c r="B389" s="21"/>
       <c r="D389" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E389" s="46"/>
       <c r="I389" s="17"/>
       <c r="M389" s="46"/>
       <c r="N389" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O389" s="3"/>
       <c r="P389" s="21"/>
@@ -17864,7 +17535,7 @@
         <v>388</v>
       </c>
       <c r="S389" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T389" s="2"/>
       <c r="U389" s="3"/>
@@ -17895,7 +17566,7 @@
         <v>389</v>
       </c>
       <c r="S390" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T390" s="2"/>
       <c r="U390" s="3"/>
@@ -17918,26 +17589,26 @@
       </c>
       <c r="B391" s="21"/>
       <c r="C391" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E391" s="46"/>
       <c r="G391" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I391" s="17"/>
       <c r="K391" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M391" s="46"/>
       <c r="O391" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P391" s="21"/>
       <c r="R391" s="51">
         <v>390</v>
       </c>
       <c r="S391" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T391" s="2"/>
       <c r="U391" s="3"/>
@@ -17961,11 +17632,11 @@
       <c r="B392" s="21"/>
       <c r="E392" s="46"/>
       <c r="G392" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I392" s="17"/>
       <c r="K392" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M392" s="46"/>
       <c r="O392" s="3"/>
@@ -17974,7 +17645,7 @@
         <v>391</v>
       </c>
       <c r="S392" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T392" s="2"/>
       <c r="U392" s="3"/>
@@ -17997,19 +17668,19 @@
       </c>
       <c r="B393" s="21"/>
       <c r="D393" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E393" s="46"/>
       <c r="G393" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I393" s="17"/>
       <c r="K393" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M393" s="46"/>
       <c r="N393" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O393" s="3"/>
       <c r="P393" s="21"/>
@@ -18017,7 +17688,7 @@
         <v>392</v>
       </c>
       <c r="S393" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T393" s="2"/>
       <c r="U393" s="3"/>
@@ -18048,7 +17719,7 @@
         <v>393</v>
       </c>
       <c r="S394" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T394" s="2"/>
       <c r="U394" s="3"/>
@@ -18071,20 +17742,20 @@
       </c>
       <c r="B395" s="21"/>
       <c r="C395" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E395" s="46"/>
       <c r="I395" s="17"/>
       <c r="M395" s="46"/>
       <c r="O395" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P395" s="21"/>
       <c r="R395" s="51">
         <v>394</v>
       </c>
       <c r="S395" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T395" s="2"/>
       <c r="U395" s="3"/>
@@ -18107,13 +17778,13 @@
       </c>
       <c r="B396" s="21"/>
       <c r="E396" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I396" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M396" t="s">
         <v>85</v>
-      </c>
-      <c r="M396" t="s">
-        <v>86</v>
       </c>
       <c r="O396" s="3"/>
       <c r="P396" s="21"/>
@@ -18121,7 +17792,7 @@
         <v>395</v>
       </c>
       <c r="S396" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T396" s="2"/>
       <c r="U396" s="3"/>
@@ -18150,7 +17821,7 @@
         <v>396</v>
       </c>
       <c r="S397" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T397" s="2"/>
       <c r="U397" s="3"/>
@@ -18179,7 +17850,7 @@
         <v>397</v>
       </c>
       <c r="S398" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T398" s="2"/>
       <c r="U398" s="3"/>
@@ -18208,7 +17879,7 @@
         <v>398</v>
       </c>
       <c r="S399" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T399" s="2"/>
       <c r="U399" s="3"/>
@@ -18237,7 +17908,7 @@
         <v>399</v>
       </c>
       <c r="S400" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T400" s="2"/>
       <c r="U400" s="3"/>
@@ -18260,11 +17931,11 @@
       </c>
       <c r="B401" s="21"/>
       <c r="F401" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I401" s="46"/>
       <c r="L401" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="21"/>
@@ -18272,7 +17943,7 @@
         <v>400</v>
       </c>
       <c r="S401" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T401" s="2"/>
       <c r="U401" s="3"/>
@@ -18295,17 +17966,17 @@
       </c>
       <c r="B402" s="21"/>
       <c r="E402" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G402" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I402" s="46"/>
       <c r="K402" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M402" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O402" s="3"/>
       <c r="P402" s="21"/>
@@ -18313,7 +17984,7 @@
         <v>401</v>
       </c>
       <c r="S402" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T402" s="2"/>
       <c r="U402" s="3"/>
@@ -18342,7 +18013,7 @@
         <v>402</v>
       </c>
       <c r="S403" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T403" s="2"/>
       <c r="U403" s="3"/>
@@ -18365,13 +18036,13 @@
       </c>
       <c r="B404" s="21"/>
       <c r="F404" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I404" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L404" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O404" s="3"/>
       <c r="P404" s="21"/>
@@ -18379,7 +18050,7 @@
         <v>403</v>
       </c>
       <c r="S404" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T404" s="2"/>
       <c r="U404" s="3"/>
@@ -18407,7 +18078,7 @@
         <v>404</v>
       </c>
       <c r="S405" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T405" s="2"/>
       <c r="U405" s="3"/>
@@ -18435,7 +18106,7 @@
         <v>405</v>
       </c>
       <c r="S406" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T406" s="2"/>
       <c r="U406" s="3"/>
@@ -18457,17 +18128,17 @@
         <v>406</v>
       </c>
       <c r="B407" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O407" s="3"/>
       <c r="P407" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R407" s="51">
         <v>406</v>
       </c>
       <c r="S407" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T407" s="2"/>
       <c r="U407" s="3"/>
@@ -18490,17 +18161,17 @@
       </c>
       <c r="B408" s="54"/>
       <c r="C408" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O408" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P408" s="54"/>
       <c r="R408" s="51">
         <v>407</v>
       </c>
       <c r="S408" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T408" s="2"/>
       <c r="U408" s="3"/>
@@ -18524,10 +18195,10 @@
       <c r="B409" s="54"/>
       <c r="C409" s="46"/>
       <c r="D409" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N409" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O409" s="45"/>
       <c r="P409" s="54"/>
@@ -18535,7 +18206,7 @@
         <v>408</v>
       </c>
       <c r="S409" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T409" s="2"/>
       <c r="U409" s="3"/>
@@ -18560,10 +18231,10 @@
       <c r="C410" s="46"/>
       <c r="D410" s="46"/>
       <c r="E410" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M410" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N410" s="46"/>
       <c r="O410" s="45"/>
@@ -18572,7 +18243,7 @@
         <v>409</v>
       </c>
       <c r="S410" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T410" s="2"/>
       <c r="U410" s="3"/>
@@ -18598,10 +18269,10 @@
       <c r="D411" s="46"/>
       <c r="E411" s="46"/>
       <c r="F411" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L411" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M411" s="46"/>
       <c r="N411" s="46"/>
@@ -18611,7 +18282,7 @@
         <v>410</v>
       </c>
       <c r="S411" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T411" s="2"/>
       <c r="U411" s="3"/>
@@ -18633,7 +18304,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C412" s="46"/>
       <c r="D412" s="46"/>
@@ -18644,13 +18315,13 @@
       <c r="N412" s="46"/>
       <c r="O412" s="45"/>
       <c r="P412" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R412" s="51">
         <v>411</v>
       </c>
       <c r="S412" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T412" s="2"/>
       <c r="U412" s="3"/>
@@ -18673,7 +18344,7 @@
       </c>
       <c r="B413" s="21"/>
       <c r="C413" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D413" s="46"/>
       <c r="E413" s="46"/>
@@ -18682,14 +18353,14 @@
       <c r="M413" s="46"/>
       <c r="N413" s="46"/>
       <c r="O413" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P413" s="21"/>
       <c r="R413" s="51">
         <v>412</v>
       </c>
       <c r="S413" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T413" s="2"/>
       <c r="U413" s="3"/>
@@ -18712,14 +18383,14 @@
       </c>
       <c r="B414" s="21"/>
       <c r="D414" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E414" s="46"/>
       <c r="F414" s="46"/>
       <c r="L414" s="46"/>
       <c r="M414" s="46"/>
       <c r="N414" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O414" s="3"/>
       <c r="P414" s="21"/>
@@ -18727,7 +18398,7 @@
         <v>413</v>
       </c>
       <c r="S414" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T414" s="2"/>
       <c r="U414" s="3"/>
@@ -18750,12 +18421,12 @@
       </c>
       <c r="B415" s="21"/>
       <c r="E415" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F415" s="46"/>
       <c r="L415" s="46"/>
       <c r="M415" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O415" s="3"/>
       <c r="P415" s="21"/>
@@ -18763,7 +18434,7 @@
         <v>414</v>
       </c>
       <c r="S415" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T415" s="2"/>
       <c r="U415" s="3"/>
@@ -18786,13 +18457,13 @@
       </c>
       <c r="B416" s="21"/>
       <c r="F416" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I416" t="s">
         <v>13</v>
       </c>
       <c r="L416" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O416" s="3"/>
       <c r="P416" s="21"/>
@@ -18800,7 +18471,7 @@
         <v>415</v>
       </c>
       <c r="S416" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T416" s="2"/>
       <c r="U416" s="3"/>
@@ -18828,7 +18499,7 @@
         <v>416</v>
       </c>
       <c r="S417" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T417" s="2"/>
       <c r="U417" s="3"/>
@@ -18856,7 +18527,7 @@
         <v>417</v>
       </c>
       <c r="S418" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T418" s="2"/>
       <c r="U418" s="3"/>
@@ -18884,7 +18555,7 @@
         <v>418</v>
       </c>
       <c r="S419" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T419" s="2"/>
       <c r="U419" s="3"/>
@@ -18912,7 +18583,7 @@
         <v>419</v>
       </c>
       <c r="S420" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T420" s="2"/>
       <c r="U420" s="3"/>
@@ -18934,7 +18605,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C421" s="55"/>
       <c r="D421" s="37"/>
@@ -18950,13 +18621,13 @@
       <c r="N421" s="37"/>
       <c r="O421" s="56"/>
       <c r="P421" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R421" s="51">
         <v>420</v>
       </c>
       <c r="S421" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T421" s="2"/>
       <c r="U421" s="3"/>
@@ -19048,7 +18719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -19097,13 +18768,13 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -19116,13 +18787,13 @@
     </row>
     <row r="4" spans="2:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -19135,13 +18806,13 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -19160,7 +18831,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -19230,13 +18901,13 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -19255,7 +18926,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -19266,22 +18937,22 @@
     </row>
     <row r="12" spans="2:12" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="F12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="H12" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -19292,22 +18963,22 @@
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>44</v>
-      </c>
       <c r="E13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="40" t="s">
         <v>56</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>57</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -19318,19 +18989,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="40" t="s">
         <v>59</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>60</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -19338,22 +19009,22 @@
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="40" t="s">
         <v>62</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>63</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -19367,16 +19038,16 @@
         <v>23</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>66</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -19393,13 +19064,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="H17" s="43" t="s">
         <v>68</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>69</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
